--- a/model_KNN/dataset.xlsx
+++ b/model_KNN/dataset.xlsx
@@ -1,35 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\PycharmProjects\ML\model_KNN\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="tg_bot" sheetId="1" r:id="rId4"/>
+    <sheet name="tg_bot" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
-  <si>
-    <t>Температура тела (в градусах Цельсия)</t>
-  </si>
-  <si>
-    <t>Пульс(ударов в минуту)</t>
-  </si>
-  <si>
-    <t>Уровень боли</t>
-  </si>
-  <si>
-    <t>Диагноз</t>
-  </si>
-  <si>
-    <t>40.2</t>
-  </si>
-  <si>
-    <t>Болен</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>39.1</t>
   </si>
@@ -38,12 +28,6 @@
   </si>
   <si>
     <t>38.5</t>
-  </si>
-  <si>
-    <t>36.2</t>
-  </si>
-  <si>
-    <t>Не болен</t>
   </si>
   <si>
     <t>37.9</t>
@@ -78,25 +62,56 @@
   <si>
     <t>38.2</t>
   </si>
+  <si>
+    <t>низкая</t>
+  </si>
+  <si>
+    <t>высокая</t>
+  </si>
+  <si>
+    <t>Уровень активности</t>
+  </si>
+  <si>
+    <t>возраст</t>
+  </si>
+  <si>
+    <t>вес тела</t>
+  </si>
+  <si>
+    <t>70.2</t>
+  </si>
+  <si>
+    <t>65.4</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>70.5</t>
+  </si>
+  <si>
+    <t>Диагноз</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -106,35 +121,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -324,3259 +349,3259 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.71"/>
-    <col customWidth="1" min="2" max="2" width="19.14"/>
-    <col customWidth="1" min="3" max="3" width="19.86"/>
-    <col customWidth="1" min="4" max="4" width="16.14"/>
-    <col customWidth="1" min="5" max="26" width="8.71"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>95</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2">
+        <v>78</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B11" s="2">
+        <v>80</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2">
+        <v>90</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>55</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2">
+        <v>90</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B16" s="2">
+        <v>90</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="2">
+        <v>70</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2">
-        <v>90.0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B20" s="2">
+        <v>85</v>
+      </c>
+      <c r="C20" s="1">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
-        <v>80.0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <v>70.0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="2">
+        <v>76</v>
+      </c>
+      <c r="C21" s="1">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
-        <v>60.0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2">
-        <v>88.0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2">
-        <v>95.0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2">
-        <v>65.0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2">
-        <v>78.0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2">
-        <v>80.0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2">
-        <v>90.0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2">
-        <v>55.0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="2">
-        <v>70.0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="2">
-        <v>90.0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="2">
-        <v>90.0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="2">
-        <v>70.0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="2">
-        <v>70.0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="2">
-        <v>85.0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="2">
-        <v>110.0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="2"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="2"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="2"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="2"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="2"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="2"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="2"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="2"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="2"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="2"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="2"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="2"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="2"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="2"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="2"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="2"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="2"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="2"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="2"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="2"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="2"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="2"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="2"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="2"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="2"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="2"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="2"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="2"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="2"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="2"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="2"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="2"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="2"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="2"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="2"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="2"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="2"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="2"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="2"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="2"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="2"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="2"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="2"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="2"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="2"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="2"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="2"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="2"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="2"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="2"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="2"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="2"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="2"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="2"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="2"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="2"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="2"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="2"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="2"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="2"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="2"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="2"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="2"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="2"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="2"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="2"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="2"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="2"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="2"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="2"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="2"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="2"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="2"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="2"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="2"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="2"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="2"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="2"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="2"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="2"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="2"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="2"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="2"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="2"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="2"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="2"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="2"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="2"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="2"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="2"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="2"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="2"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="2"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="2"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="2"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="2"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="2"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="2"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="2"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="2"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="2"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="2"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149" s="2"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150" s="2"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="2"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="2"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="2"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="2"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="2"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="2"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="2"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="2"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="2"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="2"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161" s="2"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B162" s="2"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B163" s="2"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B164" s="2"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B165" s="2"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B166" s="2"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B167" s="2"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="2"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B169" s="2"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B170" s="2"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="2"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B172" s="2"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" s="2"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B174" s="2"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="2"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B176" s="2"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177" s="2"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178" s="2"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B179" s="2"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B180" s="2"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B181" s="2"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B182" s="2"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B183" s="2"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B184" s="2"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B185" s="2"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B186" s="2"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B187" s="2"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B188" s="2"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B189" s="2"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B190" s="2"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B191" s="2"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B192" s="2"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B193" s="2"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B194" s="2"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B195" s="2"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B196" s="2"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B197" s="2"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B198" s="2"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B199" s="2"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B200" s="2"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B201" s="2"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B202" s="2"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B203" s="2"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B204" s="2"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B205" s="2"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B206" s="2"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B207" s="2"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B208" s="2"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B209" s="2"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B210" s="2"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B211" s="2"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B212" s="2"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B213" s="2"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B214" s="2"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B215" s="2"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B216" s="2"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B217" s="2"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B218" s="2"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B219" s="2"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B220" s="2"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B221" s="2"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B222" s="2"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B223" s="2"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B224" s="2"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B225" s="2"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B226" s="2"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B227" s="2"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B228" s="2"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B229" s="2"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B230" s="2"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B231" s="2"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B232" s="2"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B233" s="2"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B234" s="2"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B235" s="2"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B236" s="2"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B237" s="2"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B238" s="2"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B239" s="2"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B240" s="2"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B241" s="2"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B242" s="2"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B243" s="2"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B244" s="2"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B245" s="2"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B246" s="2"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B247" s="2"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B248" s="2"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B249" s="2"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B250" s="2"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B251" s="2"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B252" s="2"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B253" s="2"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B254" s="2"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B255" s="2"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B256" s="2"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B257" s="2"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B258" s="2"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B259" s="2"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B260" s="2"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B261" s="2"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B262" s="2"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B263" s="2"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B264" s="2"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B265" s="2"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B266" s="2"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B267" s="2"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B268" s="2"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B269" s="2"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B270" s="2"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B271" s="2"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B272" s="2"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B273" s="2"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B274" s="2"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B275" s="2"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B276" s="2"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B277" s="2"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B278" s="2"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B279" s="2"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B280" s="2"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B281" s="2"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B282" s="2"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B283" s="2"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B284" s="2"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B285" s="2"/>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B286" s="2"/>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B287" s="2"/>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B288" s="2"/>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B289" s="2"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B290" s="2"/>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B291" s="2"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B292" s="2"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B293" s="2"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B294" s="2"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B295" s="2"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B296" s="2"/>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B297" s="2"/>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B298" s="2"/>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B299" s="2"/>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B300" s="2"/>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B301" s="2"/>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B302" s="2"/>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B303" s="2"/>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B304" s="2"/>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B305" s="2"/>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B306" s="2"/>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B307" s="2"/>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B308" s="2"/>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B309" s="2"/>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B310" s="2"/>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B311" s="2"/>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B312" s="2"/>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B313" s="2"/>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B314" s="2"/>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B315" s="2"/>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B316" s="2"/>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B317" s="2"/>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B318" s="2"/>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B319" s="2"/>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B320" s="2"/>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B321" s="2"/>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B322" s="2"/>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B323" s="2"/>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B324" s="2"/>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B325" s="2"/>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B326" s="2"/>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B327" s="2"/>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B328" s="2"/>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B329" s="2"/>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B330" s="2"/>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B331" s="2"/>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B332" s="2"/>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B333" s="2"/>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B334" s="2"/>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B335" s="2"/>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B336" s="2"/>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B337" s="2"/>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B338" s="2"/>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B339" s="2"/>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B340" s="2"/>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B341" s="2"/>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B342" s="2"/>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B343" s="2"/>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B344" s="2"/>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B345" s="2"/>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B346" s="2"/>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B347" s="2"/>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B348" s="2"/>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B349" s="2"/>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B350" s="2"/>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B351" s="2"/>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B352" s="2"/>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B353" s="2"/>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B354" s="2"/>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B355" s="2"/>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B356" s="2"/>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B357" s="2"/>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B358" s="2"/>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B359" s="2"/>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B360" s="2"/>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B361" s="2"/>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B362" s="2"/>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B363" s="2"/>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B364" s="2"/>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B365" s="2"/>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B366" s="2"/>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B367" s="2"/>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B368" s="2"/>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B369" s="2"/>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B370" s="2"/>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B371" s="2"/>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B372" s="2"/>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B373" s="2"/>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B374" s="2"/>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B375" s="2"/>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B376" s="2"/>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B377" s="2"/>
     </row>
-    <row r="378" ht="15.75" customHeight="1">
+    <row r="378" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B378" s="2"/>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B379" s="2"/>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B380" s="2"/>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B381" s="2"/>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B382" s="2"/>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B383" s="2"/>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B384" s="2"/>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B385" s="2"/>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B386" s="2"/>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B387" s="2"/>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B388" s="2"/>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B389" s="2"/>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B390" s="2"/>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B391" s="2"/>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B392" s="2"/>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B393" s="2"/>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B394" s="2"/>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B395" s="2"/>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B396" s="2"/>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B397" s="2"/>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B398" s="2"/>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B399" s="2"/>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B400" s="2"/>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B401" s="2"/>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B402" s="2"/>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B403" s="2"/>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B404" s="2"/>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B405" s="2"/>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B406" s="2"/>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B407" s="2"/>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B408" s="2"/>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B409" s="2"/>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B410" s="2"/>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B411" s="2"/>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B412" s="2"/>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B413" s="2"/>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B414" s="2"/>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B415" s="2"/>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B416" s="2"/>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B417" s="2"/>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B418" s="2"/>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B419" s="2"/>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B420" s="2"/>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B421" s="2"/>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B422" s="2"/>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B423" s="2"/>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B424" s="2"/>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B425" s="2"/>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B426" s="2"/>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B427" s="2"/>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B428" s="2"/>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B429" s="2"/>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B430" s="2"/>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B431" s="2"/>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B432" s="2"/>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B433" s="2"/>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B434" s="2"/>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B435" s="2"/>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B436" s="2"/>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B437" s="2"/>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B438" s="2"/>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B439" s="2"/>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B440" s="2"/>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B441" s="2"/>
     </row>
-    <row r="442" ht="15.75" customHeight="1">
+    <row r="442" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B442" s="2"/>
     </row>
-    <row r="443" ht="15.75" customHeight="1">
+    <row r="443" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B443" s="2"/>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B444" s="2"/>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B445" s="2"/>
     </row>
-    <row r="446" ht="15.75" customHeight="1">
+    <row r="446" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B446" s="2"/>
     </row>
-    <row r="447" ht="15.75" customHeight="1">
+    <row r="447" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B447" s="2"/>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B448" s="2"/>
     </row>
-    <row r="449" ht="15.75" customHeight="1">
+    <row r="449" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B449" s="2"/>
     </row>
-    <row r="450" ht="15.75" customHeight="1">
+    <row r="450" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B450" s="2"/>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B451" s="2"/>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B452" s="2"/>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B453" s="2"/>
     </row>
-    <row r="454" ht="15.75" customHeight="1">
+    <row r="454" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B454" s="2"/>
     </row>
-    <row r="455" ht="15.75" customHeight="1">
+    <row r="455" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B455" s="2"/>
     </row>
-    <row r="456" ht="15.75" customHeight="1">
+    <row r="456" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B456" s="2"/>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B457" s="2"/>
     </row>
-    <row r="458" ht="15.75" customHeight="1">
+    <row r="458" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B458" s="2"/>
     </row>
-    <row r="459" ht="15.75" customHeight="1">
+    <row r="459" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B459" s="2"/>
     </row>
-    <row r="460" ht="15.75" customHeight="1">
+    <row r="460" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B460" s="2"/>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B461" s="2"/>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B462" s="2"/>
     </row>
-    <row r="463" ht="15.75" customHeight="1">
+    <row r="463" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B463" s="2"/>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B464" s="2"/>
     </row>
-    <row r="465" ht="15.75" customHeight="1">
+    <row r="465" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B465" s="2"/>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B466" s="2"/>
     </row>
-    <row r="467" ht="15.75" customHeight="1">
+    <row r="467" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B467" s="2"/>
     </row>
-    <row r="468" ht="15.75" customHeight="1">
+    <row r="468" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B468" s="2"/>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B469" s="2"/>
     </row>
-    <row r="470" ht="15.75" customHeight="1">
+    <row r="470" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B470" s="2"/>
     </row>
-    <row r="471" ht="15.75" customHeight="1">
+    <row r="471" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B471" s="2"/>
     </row>
-    <row r="472" ht="15.75" customHeight="1">
+    <row r="472" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B472" s="2"/>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B473" s="2"/>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B474" s="2"/>
     </row>
-    <row r="475" ht="15.75" customHeight="1">
+    <row r="475" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B475" s="2"/>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B476" s="2"/>
     </row>
-    <row r="477" ht="15.75" customHeight="1">
+    <row r="477" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B477" s="2"/>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B478" s="2"/>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B479" s="2"/>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B480" s="2"/>
     </row>
-    <row r="481" ht="15.75" customHeight="1">
+    <row r="481" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B481" s="2"/>
     </row>
-    <row r="482" ht="15.75" customHeight="1">
+    <row r="482" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B482" s="2"/>
     </row>
-    <row r="483" ht="15.75" customHeight="1">
+    <row r="483" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B483" s="2"/>
     </row>
-    <row r="484" ht="15.75" customHeight="1">
+    <row r="484" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B484" s="2"/>
     </row>
-    <row r="485" ht="15.75" customHeight="1">
+    <row r="485" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B485" s="2"/>
     </row>
-    <row r="486" ht="15.75" customHeight="1">
+    <row r="486" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B486" s="2"/>
     </row>
-    <row r="487" ht="15.75" customHeight="1">
+    <row r="487" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B487" s="2"/>
     </row>
-    <row r="488" ht="15.75" customHeight="1">
+    <row r="488" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B488" s="2"/>
     </row>
-    <row r="489" ht="15.75" customHeight="1">
+    <row r="489" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B489" s="2"/>
     </row>
-    <row r="490" ht="15.75" customHeight="1">
+    <row r="490" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B490" s="2"/>
     </row>
-    <row r="491" ht="15.75" customHeight="1">
+    <row r="491" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B491" s="2"/>
     </row>
-    <row r="492" ht="15.75" customHeight="1">
+    <row r="492" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B492" s="2"/>
     </row>
-    <row r="493" ht="15.75" customHeight="1">
+    <row r="493" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B493" s="2"/>
     </row>
-    <row r="494" ht="15.75" customHeight="1">
+    <row r="494" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B494" s="2"/>
     </row>
-    <row r="495" ht="15.75" customHeight="1">
+    <row r="495" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B495" s="2"/>
     </row>
-    <row r="496" ht="15.75" customHeight="1">
+    <row r="496" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B496" s="2"/>
     </row>
-    <row r="497" ht="15.75" customHeight="1">
+    <row r="497" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B497" s="2"/>
     </row>
-    <row r="498" ht="15.75" customHeight="1">
+    <row r="498" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B498" s="2"/>
     </row>
-    <row r="499" ht="15.75" customHeight="1">
+    <row r="499" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B499" s="2"/>
     </row>
-    <row r="500" ht="15.75" customHeight="1">
+    <row r="500" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B500" s="2"/>
     </row>
-    <row r="501" ht="15.75" customHeight="1">
+    <row r="501" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B501" s="2"/>
     </row>
-    <row r="502" ht="15.75" customHeight="1">
+    <row r="502" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B502" s="2"/>
     </row>
-    <row r="503" ht="15.75" customHeight="1">
+    <row r="503" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B503" s="2"/>
     </row>
-    <row r="504" ht="15.75" customHeight="1">
+    <row r="504" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B504" s="2"/>
     </row>
-    <row r="505" ht="15.75" customHeight="1">
+    <row r="505" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B505" s="2"/>
     </row>
-    <row r="506" ht="15.75" customHeight="1">
+    <row r="506" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B506" s="2"/>
     </row>
-    <row r="507" ht="15.75" customHeight="1">
+    <row r="507" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B507" s="2"/>
     </row>
-    <row r="508" ht="15.75" customHeight="1">
+    <row r="508" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B508" s="2"/>
     </row>
-    <row r="509" ht="15.75" customHeight="1">
+    <row r="509" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B509" s="2"/>
     </row>
-    <row r="510" ht="15.75" customHeight="1">
+    <row r="510" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B510" s="2"/>
     </row>
-    <row r="511" ht="15.75" customHeight="1">
+    <row r="511" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B511" s="2"/>
     </row>
-    <row r="512" ht="15.75" customHeight="1">
+    <row r="512" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B512" s="2"/>
     </row>
-    <row r="513" ht="15.75" customHeight="1">
+    <row r="513" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B513" s="2"/>
     </row>
-    <row r="514" ht="15.75" customHeight="1">
+    <row r="514" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B514" s="2"/>
     </row>
-    <row r="515" ht="15.75" customHeight="1">
+    <row r="515" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B515" s="2"/>
     </row>
-    <row r="516" ht="15.75" customHeight="1">
+    <row r="516" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B516" s="2"/>
     </row>
-    <row r="517" ht="15.75" customHeight="1">
+    <row r="517" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B517" s="2"/>
     </row>
-    <row r="518" ht="15.75" customHeight="1">
+    <row r="518" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B518" s="2"/>
     </row>
-    <row r="519" ht="15.75" customHeight="1">
+    <row r="519" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B519" s="2"/>
     </row>
-    <row r="520" ht="15.75" customHeight="1">
+    <row r="520" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B520" s="2"/>
     </row>
-    <row r="521" ht="15.75" customHeight="1">
+    <row r="521" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B521" s="2"/>
     </row>
-    <row r="522" ht="15.75" customHeight="1">
+    <row r="522" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B522" s="2"/>
     </row>
-    <row r="523" ht="15.75" customHeight="1">
+    <row r="523" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B523" s="2"/>
     </row>
-    <row r="524" ht="15.75" customHeight="1">
+    <row r="524" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B524" s="2"/>
     </row>
-    <row r="525" ht="15.75" customHeight="1">
+    <row r="525" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B525" s="2"/>
     </row>
-    <row r="526" ht="15.75" customHeight="1">
+    <row r="526" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B526" s="2"/>
     </row>
-    <row r="527" ht="15.75" customHeight="1">
+    <row r="527" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B527" s="2"/>
     </row>
-    <row r="528" ht="15.75" customHeight="1">
+    <row r="528" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B528" s="2"/>
     </row>
-    <row r="529" ht="15.75" customHeight="1">
+    <row r="529" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B529" s="2"/>
     </row>
-    <row r="530" ht="15.75" customHeight="1">
+    <row r="530" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B530" s="2"/>
     </row>
-    <row r="531" ht="15.75" customHeight="1">
+    <row r="531" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B531" s="2"/>
     </row>
-    <row r="532" ht="15.75" customHeight="1">
+    <row r="532" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B532" s="2"/>
     </row>
-    <row r="533" ht="15.75" customHeight="1">
+    <row r="533" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B533" s="2"/>
     </row>
-    <row r="534" ht="15.75" customHeight="1">
+    <row r="534" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B534" s="2"/>
     </row>
-    <row r="535" ht="15.75" customHeight="1">
+    <row r="535" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B535" s="2"/>
     </row>
-    <row r="536" ht="15.75" customHeight="1">
+    <row r="536" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B536" s="2"/>
     </row>
-    <row r="537" ht="15.75" customHeight="1">
+    <row r="537" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B537" s="2"/>
     </row>
-    <row r="538" ht="15.75" customHeight="1">
+    <row r="538" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B538" s="2"/>
     </row>
-    <row r="539" ht="15.75" customHeight="1">
+    <row r="539" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B539" s="2"/>
     </row>
-    <row r="540" ht="15.75" customHeight="1">
+    <row r="540" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B540" s="2"/>
     </row>
-    <row r="541" ht="15.75" customHeight="1">
+    <row r="541" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B541" s="2"/>
     </row>
-    <row r="542" ht="15.75" customHeight="1">
+    <row r="542" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B542" s="2"/>
     </row>
-    <row r="543" ht="15.75" customHeight="1">
+    <row r="543" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B543" s="2"/>
     </row>
-    <row r="544" ht="15.75" customHeight="1">
+    <row r="544" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B544" s="2"/>
     </row>
-    <row r="545" ht="15.75" customHeight="1">
+    <row r="545" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B545" s="2"/>
     </row>
-    <row r="546" ht="15.75" customHeight="1">
+    <row r="546" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B546" s="2"/>
     </row>
-    <row r="547" ht="15.75" customHeight="1">
+    <row r="547" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B547" s="2"/>
     </row>
-    <row r="548" ht="15.75" customHeight="1">
+    <row r="548" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B548" s="2"/>
     </row>
-    <row r="549" ht="15.75" customHeight="1">
+    <row r="549" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B549" s="2"/>
     </row>
-    <row r="550" ht="15.75" customHeight="1">
+    <row r="550" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B550" s="2"/>
     </row>
-    <row r="551" ht="15.75" customHeight="1">
+    <row r="551" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B551" s="2"/>
     </row>
-    <row r="552" ht="15.75" customHeight="1">
+    <row r="552" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B552" s="2"/>
     </row>
-    <row r="553" ht="15.75" customHeight="1">
+    <row r="553" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B553" s="2"/>
     </row>
-    <row r="554" ht="15.75" customHeight="1">
+    <row r="554" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B554" s="2"/>
     </row>
-    <row r="555" ht="15.75" customHeight="1">
+    <row r="555" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B555" s="2"/>
     </row>
-    <row r="556" ht="15.75" customHeight="1">
+    <row r="556" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B556" s="2"/>
     </row>
-    <row r="557" ht="15.75" customHeight="1">
+    <row r="557" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B557" s="2"/>
     </row>
-    <row r="558" ht="15.75" customHeight="1">
+    <row r="558" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B558" s="2"/>
     </row>
-    <row r="559" ht="15.75" customHeight="1">
+    <row r="559" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B559" s="2"/>
     </row>
-    <row r="560" ht="15.75" customHeight="1">
+    <row r="560" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B560" s="2"/>
     </row>
-    <row r="561" ht="15.75" customHeight="1">
+    <row r="561" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B561" s="2"/>
     </row>
-    <row r="562" ht="15.75" customHeight="1">
+    <row r="562" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B562" s="2"/>
     </row>
-    <row r="563" ht="15.75" customHeight="1">
+    <row r="563" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B563" s="2"/>
     </row>
-    <row r="564" ht="15.75" customHeight="1">
+    <row r="564" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B564" s="2"/>
     </row>
-    <row r="565" ht="15.75" customHeight="1">
+    <row r="565" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B565" s="2"/>
     </row>
-    <row r="566" ht="15.75" customHeight="1">
+    <row r="566" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B566" s="2"/>
     </row>
-    <row r="567" ht="15.75" customHeight="1">
+    <row r="567" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B567" s="2"/>
     </row>
-    <row r="568" ht="15.75" customHeight="1">
+    <row r="568" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B568" s="2"/>
     </row>
-    <row r="569" ht="15.75" customHeight="1">
+    <row r="569" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B569" s="2"/>
     </row>
-    <row r="570" ht="15.75" customHeight="1">
+    <row r="570" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B570" s="2"/>
     </row>
-    <row r="571" ht="15.75" customHeight="1">
+    <row r="571" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B571" s="2"/>
     </row>
-    <row r="572" ht="15.75" customHeight="1">
+    <row r="572" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B572" s="2"/>
     </row>
-    <row r="573" ht="15.75" customHeight="1">
+    <row r="573" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B573" s="2"/>
     </row>
-    <row r="574" ht="15.75" customHeight="1">
+    <row r="574" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B574" s="2"/>
     </row>
-    <row r="575" ht="15.75" customHeight="1">
+    <row r="575" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B575" s="2"/>
     </row>
-    <row r="576" ht="15.75" customHeight="1">
+    <row r="576" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B576" s="2"/>
     </row>
-    <row r="577" ht="15.75" customHeight="1">
+    <row r="577" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B577" s="2"/>
     </row>
-    <row r="578" ht="15.75" customHeight="1">
+    <row r="578" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B578" s="2"/>
     </row>
-    <row r="579" ht="15.75" customHeight="1">
+    <row r="579" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B579" s="2"/>
     </row>
-    <row r="580" ht="15.75" customHeight="1">
+    <row r="580" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B580" s="2"/>
     </row>
-    <row r="581" ht="15.75" customHeight="1">
+    <row r="581" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B581" s="2"/>
     </row>
-    <row r="582" ht="15.75" customHeight="1">
+    <row r="582" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B582" s="2"/>
     </row>
-    <row r="583" ht="15.75" customHeight="1">
+    <row r="583" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B583" s="2"/>
     </row>
-    <row r="584" ht="15.75" customHeight="1">
+    <row r="584" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B584" s="2"/>
     </row>
-    <row r="585" ht="15.75" customHeight="1">
+    <row r="585" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B585" s="2"/>
     </row>
-    <row r="586" ht="15.75" customHeight="1">
+    <row r="586" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B586" s="2"/>
     </row>
-    <row r="587" ht="15.75" customHeight="1">
+    <row r="587" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B587" s="2"/>
     </row>
-    <row r="588" ht="15.75" customHeight="1">
+    <row r="588" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B588" s="2"/>
     </row>
-    <row r="589" ht="15.75" customHeight="1">
+    <row r="589" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B589" s="2"/>
     </row>
-    <row r="590" ht="15.75" customHeight="1">
+    <row r="590" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B590" s="2"/>
     </row>
-    <row r="591" ht="15.75" customHeight="1">
+    <row r="591" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B591" s="2"/>
     </row>
-    <row r="592" ht="15.75" customHeight="1">
+    <row r="592" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B592" s="2"/>
     </row>
-    <row r="593" ht="15.75" customHeight="1">
+    <row r="593" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B593" s="2"/>
     </row>
-    <row r="594" ht="15.75" customHeight="1">
+    <row r="594" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B594" s="2"/>
     </row>
-    <row r="595" ht="15.75" customHeight="1">
+    <row r="595" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B595" s="2"/>
     </row>
-    <row r="596" ht="15.75" customHeight="1">
+    <row r="596" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B596" s="2"/>
     </row>
-    <row r="597" ht="15.75" customHeight="1">
+    <row r="597" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B597" s="2"/>
     </row>
-    <row r="598" ht="15.75" customHeight="1">
+    <row r="598" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B598" s="2"/>
     </row>
-    <row r="599" ht="15.75" customHeight="1">
+    <row r="599" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B599" s="2"/>
     </row>
-    <row r="600" ht="15.75" customHeight="1">
+    <row r="600" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B600" s="2"/>
     </row>
-    <row r="601" ht="15.75" customHeight="1">
+    <row r="601" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B601" s="2"/>
     </row>
-    <row r="602" ht="15.75" customHeight="1">
+    <row r="602" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B602" s="2"/>
     </row>
-    <row r="603" ht="15.75" customHeight="1">
+    <row r="603" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B603" s="2"/>
     </row>
-    <row r="604" ht="15.75" customHeight="1">
+    <row r="604" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B604" s="2"/>
     </row>
-    <row r="605" ht="15.75" customHeight="1">
+    <row r="605" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B605" s="2"/>
     </row>
-    <row r="606" ht="15.75" customHeight="1">
+    <row r="606" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B606" s="2"/>
     </row>
-    <row r="607" ht="15.75" customHeight="1">
+    <row r="607" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B607" s="2"/>
     </row>
-    <row r="608" ht="15.75" customHeight="1">
+    <row r="608" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B608" s="2"/>
     </row>
-    <row r="609" ht="15.75" customHeight="1">
+    <row r="609" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B609" s="2"/>
     </row>
-    <row r="610" ht="15.75" customHeight="1">
+    <row r="610" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B610" s="2"/>
     </row>
-    <row r="611" ht="15.75" customHeight="1">
+    <row r="611" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B611" s="2"/>
     </row>
-    <row r="612" ht="15.75" customHeight="1">
+    <row r="612" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B612" s="2"/>
     </row>
-    <row r="613" ht="15.75" customHeight="1">
+    <row r="613" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B613" s="2"/>
     </row>
-    <row r="614" ht="15.75" customHeight="1">
+    <row r="614" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B614" s="2"/>
     </row>
-    <row r="615" ht="15.75" customHeight="1">
+    <row r="615" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B615" s="2"/>
     </row>
-    <row r="616" ht="15.75" customHeight="1">
+    <row r="616" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B616" s="2"/>
     </row>
-    <row r="617" ht="15.75" customHeight="1">
+    <row r="617" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B617" s="2"/>
     </row>
-    <row r="618" ht="15.75" customHeight="1">
+    <row r="618" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B618" s="2"/>
     </row>
-    <row r="619" ht="15.75" customHeight="1">
+    <row r="619" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B619" s="2"/>
     </row>
-    <row r="620" ht="15.75" customHeight="1">
+    <row r="620" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B620" s="2"/>
     </row>
-    <row r="621" ht="15.75" customHeight="1">
+    <row r="621" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B621" s="2"/>
     </row>
-    <row r="622" ht="15.75" customHeight="1">
+    <row r="622" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B622" s="2"/>
     </row>
-    <row r="623" ht="15.75" customHeight="1">
+    <row r="623" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B623" s="2"/>
     </row>
-    <row r="624" ht="15.75" customHeight="1">
+    <row r="624" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B624" s="2"/>
     </row>
-    <row r="625" ht="15.75" customHeight="1">
+    <row r="625" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B625" s="2"/>
     </row>
-    <row r="626" ht="15.75" customHeight="1">
+    <row r="626" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B626" s="2"/>
     </row>
-    <row r="627" ht="15.75" customHeight="1">
+    <row r="627" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B627" s="2"/>
     </row>
-    <row r="628" ht="15.75" customHeight="1">
+    <row r="628" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B628" s="2"/>
     </row>
-    <row r="629" ht="15.75" customHeight="1">
+    <row r="629" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B629" s="2"/>
     </row>
-    <row r="630" ht="15.75" customHeight="1">
+    <row r="630" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B630" s="2"/>
     </row>
-    <row r="631" ht="15.75" customHeight="1">
+    <row r="631" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B631" s="2"/>
     </row>
-    <row r="632" ht="15.75" customHeight="1">
+    <row r="632" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B632" s="2"/>
     </row>
-    <row r="633" ht="15.75" customHeight="1">
+    <row r="633" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B633" s="2"/>
     </row>
-    <row r="634" ht="15.75" customHeight="1">
+    <row r="634" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B634" s="2"/>
     </row>
-    <row r="635" ht="15.75" customHeight="1">
+    <row r="635" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B635" s="2"/>
     </row>
-    <row r="636" ht="15.75" customHeight="1">
+    <row r="636" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B636" s="2"/>
     </row>
-    <row r="637" ht="15.75" customHeight="1">
+    <row r="637" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B637" s="2"/>
     </row>
-    <row r="638" ht="15.75" customHeight="1">
+    <row r="638" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B638" s="2"/>
     </row>
-    <row r="639" ht="15.75" customHeight="1">
+    <row r="639" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B639" s="2"/>
     </row>
-    <row r="640" ht="15.75" customHeight="1">
+    <row r="640" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B640" s="2"/>
     </row>
-    <row r="641" ht="15.75" customHeight="1">
+    <row r="641" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B641" s="2"/>
     </row>
-    <row r="642" ht="15.75" customHeight="1">
+    <row r="642" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B642" s="2"/>
     </row>
-    <row r="643" ht="15.75" customHeight="1">
+    <row r="643" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B643" s="2"/>
     </row>
-    <row r="644" ht="15.75" customHeight="1">
+    <row r="644" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B644" s="2"/>
     </row>
-    <row r="645" ht="15.75" customHeight="1">
+    <row r="645" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B645" s="2"/>
     </row>
-    <row r="646" ht="15.75" customHeight="1">
+    <row r="646" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B646" s="2"/>
     </row>
-    <row r="647" ht="15.75" customHeight="1">
+    <row r="647" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B647" s="2"/>
     </row>
-    <row r="648" ht="15.75" customHeight="1">
+    <row r="648" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B648" s="2"/>
     </row>
-    <row r="649" ht="15.75" customHeight="1">
+    <row r="649" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B649" s="2"/>
     </row>
-    <row r="650" ht="15.75" customHeight="1">
+    <row r="650" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B650" s="2"/>
     </row>
-    <row r="651" ht="15.75" customHeight="1">
+    <row r="651" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B651" s="2"/>
     </row>
-    <row r="652" ht="15.75" customHeight="1">
+    <row r="652" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B652" s="2"/>
     </row>
-    <row r="653" ht="15.75" customHeight="1">
+    <row r="653" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B653" s="2"/>
     </row>
-    <row r="654" ht="15.75" customHeight="1">
+    <row r="654" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B654" s="2"/>
     </row>
-    <row r="655" ht="15.75" customHeight="1">
+    <row r="655" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B655" s="2"/>
     </row>
-    <row r="656" ht="15.75" customHeight="1">
+    <row r="656" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B656" s="2"/>
     </row>
-    <row r="657" ht="15.75" customHeight="1">
+    <row r="657" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B657" s="2"/>
     </row>
-    <row r="658" ht="15.75" customHeight="1">
+    <row r="658" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B658" s="2"/>
     </row>
-    <row r="659" ht="15.75" customHeight="1">
+    <row r="659" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B659" s="2"/>
     </row>
-    <row r="660" ht="15.75" customHeight="1">
+    <row r="660" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B660" s="2"/>
     </row>
-    <row r="661" ht="15.75" customHeight="1">
+    <row r="661" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B661" s="2"/>
     </row>
-    <row r="662" ht="15.75" customHeight="1">
+    <row r="662" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B662" s="2"/>
     </row>
-    <row r="663" ht="15.75" customHeight="1">
+    <row r="663" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B663" s="2"/>
     </row>
-    <row r="664" ht="15.75" customHeight="1">
+    <row r="664" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B664" s="2"/>
     </row>
-    <row r="665" ht="15.75" customHeight="1">
+    <row r="665" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B665" s="2"/>
     </row>
-    <row r="666" ht="15.75" customHeight="1">
+    <row r="666" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B666" s="2"/>
     </row>
-    <row r="667" ht="15.75" customHeight="1">
+    <row r="667" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B667" s="2"/>
     </row>
-    <row r="668" ht="15.75" customHeight="1">
+    <row r="668" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B668" s="2"/>
     </row>
-    <row r="669" ht="15.75" customHeight="1">
+    <row r="669" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B669" s="2"/>
     </row>
-    <row r="670" ht="15.75" customHeight="1">
+    <row r="670" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B670" s="2"/>
     </row>
-    <row r="671" ht="15.75" customHeight="1">
+    <row r="671" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B671" s="2"/>
     </row>
-    <row r="672" ht="15.75" customHeight="1">
+    <row r="672" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B672" s="2"/>
     </row>
-    <row r="673" ht="15.75" customHeight="1">
+    <row r="673" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B673" s="2"/>
     </row>
-    <row r="674" ht="15.75" customHeight="1">
+    <row r="674" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B674" s="2"/>
     </row>
-    <row r="675" ht="15.75" customHeight="1">
+    <row r="675" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B675" s="2"/>
     </row>
-    <row r="676" ht="15.75" customHeight="1">
+    <row r="676" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B676" s="2"/>
     </row>
-    <row r="677" ht="15.75" customHeight="1">
+    <row r="677" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B677" s="2"/>
     </row>
-    <row r="678" ht="15.75" customHeight="1">
+    <row r="678" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B678" s="2"/>
     </row>
-    <row r="679" ht="15.75" customHeight="1">
+    <row r="679" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B679" s="2"/>
     </row>
-    <row r="680" ht="15.75" customHeight="1">
+    <row r="680" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B680" s="2"/>
     </row>
-    <row r="681" ht="15.75" customHeight="1">
+    <row r="681" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B681" s="2"/>
     </row>
-    <row r="682" ht="15.75" customHeight="1">
+    <row r="682" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B682" s="2"/>
     </row>
-    <row r="683" ht="15.75" customHeight="1">
+    <row r="683" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B683" s="2"/>
     </row>
-    <row r="684" ht="15.75" customHeight="1">
+    <row r="684" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B684" s="2"/>
     </row>
-    <row r="685" ht="15.75" customHeight="1">
+    <row r="685" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B685" s="2"/>
     </row>
-    <row r="686" ht="15.75" customHeight="1">
+    <row r="686" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B686" s="2"/>
     </row>
-    <row r="687" ht="15.75" customHeight="1">
+    <row r="687" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B687" s="2"/>
     </row>
-    <row r="688" ht="15.75" customHeight="1">
+    <row r="688" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B688" s="2"/>
     </row>
-    <row r="689" ht="15.75" customHeight="1">
+    <row r="689" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B689" s="2"/>
     </row>
-    <row r="690" ht="15.75" customHeight="1">
+    <row r="690" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B690" s="2"/>
     </row>
-    <row r="691" ht="15.75" customHeight="1">
+    <row r="691" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B691" s="2"/>
     </row>
-    <row r="692" ht="15.75" customHeight="1">
+    <row r="692" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B692" s="2"/>
     </row>
-    <row r="693" ht="15.75" customHeight="1">
+    <row r="693" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B693" s="2"/>
     </row>
-    <row r="694" ht="15.75" customHeight="1">
+    <row r="694" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B694" s="2"/>
     </row>
-    <row r="695" ht="15.75" customHeight="1">
+    <row r="695" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B695" s="2"/>
     </row>
-    <row r="696" ht="15.75" customHeight="1">
+    <row r="696" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B696" s="2"/>
     </row>
-    <row r="697" ht="15.75" customHeight="1">
+    <row r="697" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B697" s="2"/>
     </row>
-    <row r="698" ht="15.75" customHeight="1">
+    <row r="698" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B698" s="2"/>
     </row>
-    <row r="699" ht="15.75" customHeight="1">
+    <row r="699" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B699" s="2"/>
     </row>
-    <row r="700" ht="15.75" customHeight="1">
+    <row r="700" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B700" s="2"/>
     </row>
-    <row r="701" ht="15.75" customHeight="1">
+    <row r="701" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B701" s="2"/>
     </row>
-    <row r="702" ht="15.75" customHeight="1">
+    <row r="702" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B702" s="2"/>
     </row>
-    <row r="703" ht="15.75" customHeight="1">
+    <row r="703" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B703" s="2"/>
     </row>
-    <row r="704" ht="15.75" customHeight="1">
+    <row r="704" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B704" s="2"/>
     </row>
-    <row r="705" ht="15.75" customHeight="1">
+    <row r="705" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B705" s="2"/>
     </row>
-    <row r="706" ht="15.75" customHeight="1">
+    <row r="706" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B706" s="2"/>
     </row>
-    <row r="707" ht="15.75" customHeight="1">
+    <row r="707" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B707" s="2"/>
     </row>
-    <row r="708" ht="15.75" customHeight="1">
+    <row r="708" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B708" s="2"/>
     </row>
-    <row r="709" ht="15.75" customHeight="1">
+    <row r="709" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B709" s="2"/>
     </row>
-    <row r="710" ht="15.75" customHeight="1">
+    <row r="710" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B710" s="2"/>
     </row>
-    <row r="711" ht="15.75" customHeight="1">
+    <row r="711" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B711" s="2"/>
     </row>
-    <row r="712" ht="15.75" customHeight="1">
+    <row r="712" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B712" s="2"/>
     </row>
-    <row r="713" ht="15.75" customHeight="1">
+    <row r="713" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B713" s="2"/>
     </row>
-    <row r="714" ht="15.75" customHeight="1">
+    <row r="714" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B714" s="2"/>
     </row>
-    <row r="715" ht="15.75" customHeight="1">
+    <row r="715" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B715" s="2"/>
     </row>
-    <row r="716" ht="15.75" customHeight="1">
+    <row r="716" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B716" s="2"/>
     </row>
-    <row r="717" ht="15.75" customHeight="1">
+    <row r="717" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B717" s="2"/>
     </row>
-    <row r="718" ht="15.75" customHeight="1">
+    <row r="718" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B718" s="2"/>
     </row>
-    <row r="719" ht="15.75" customHeight="1">
+    <row r="719" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B719" s="2"/>
     </row>
-    <row r="720" ht="15.75" customHeight="1">
+    <row r="720" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B720" s="2"/>
     </row>
-    <row r="721" ht="15.75" customHeight="1">
+    <row r="721" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B721" s="2"/>
     </row>
-    <row r="722" ht="15.75" customHeight="1">
+    <row r="722" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B722" s="2"/>
     </row>
-    <row r="723" ht="15.75" customHeight="1">
+    <row r="723" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B723" s="2"/>
     </row>
-    <row r="724" ht="15.75" customHeight="1">
+    <row r="724" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B724" s="2"/>
     </row>
-    <row r="725" ht="15.75" customHeight="1">
+    <row r="725" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B725" s="2"/>
     </row>
-    <row r="726" ht="15.75" customHeight="1">
+    <row r="726" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B726" s="2"/>
     </row>
-    <row r="727" ht="15.75" customHeight="1">
+    <row r="727" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B727" s="2"/>
     </row>
-    <row r="728" ht="15.75" customHeight="1">
+    <row r="728" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B728" s="2"/>
     </row>
-    <row r="729" ht="15.75" customHeight="1">
+    <row r="729" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B729" s="2"/>
     </row>
-    <row r="730" ht="15.75" customHeight="1">
+    <row r="730" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B730" s="2"/>
     </row>
-    <row r="731" ht="15.75" customHeight="1">
+    <row r="731" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B731" s="2"/>
     </row>
-    <row r="732" ht="15.75" customHeight="1">
+    <row r="732" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B732" s="2"/>
     </row>
-    <row r="733" ht="15.75" customHeight="1">
+    <row r="733" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B733" s="2"/>
     </row>
-    <row r="734" ht="15.75" customHeight="1">
+    <row r="734" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B734" s="2"/>
     </row>
-    <row r="735" ht="15.75" customHeight="1">
+    <row r="735" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B735" s="2"/>
     </row>
-    <row r="736" ht="15.75" customHeight="1">
+    <row r="736" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B736" s="2"/>
     </row>
-    <row r="737" ht="15.75" customHeight="1">
+    <row r="737" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B737" s="2"/>
     </row>
-    <row r="738" ht="15.75" customHeight="1">
+    <row r="738" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B738" s="2"/>
     </row>
-    <row r="739" ht="15.75" customHeight="1">
+    <row r="739" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B739" s="2"/>
     </row>
-    <row r="740" ht="15.75" customHeight="1">
+    <row r="740" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B740" s="2"/>
     </row>
-    <row r="741" ht="15.75" customHeight="1">
+    <row r="741" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B741" s="2"/>
     </row>
-    <row r="742" ht="15.75" customHeight="1">
+    <row r="742" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B742" s="2"/>
     </row>
-    <row r="743" ht="15.75" customHeight="1">
+    <row r="743" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B743" s="2"/>
     </row>
-    <row r="744" ht="15.75" customHeight="1">
+    <row r="744" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B744" s="2"/>
     </row>
-    <row r="745" ht="15.75" customHeight="1">
+    <row r="745" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B745" s="2"/>
     </row>
-    <row r="746" ht="15.75" customHeight="1">
+    <row r="746" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B746" s="2"/>
     </row>
-    <row r="747" ht="15.75" customHeight="1">
+    <row r="747" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B747" s="2"/>
     </row>
-    <row r="748" ht="15.75" customHeight="1">
+    <row r="748" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B748" s="2"/>
     </row>
-    <row r="749" ht="15.75" customHeight="1">
+    <row r="749" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B749" s="2"/>
     </row>
-    <row r="750" ht="15.75" customHeight="1">
+    <row r="750" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B750" s="2"/>
     </row>
-    <row r="751" ht="15.75" customHeight="1">
+    <row r="751" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B751" s="2"/>
     </row>
-    <row r="752" ht="15.75" customHeight="1">
+    <row r="752" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B752" s="2"/>
     </row>
-    <row r="753" ht="15.75" customHeight="1">
+    <row r="753" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B753" s="2"/>
     </row>
-    <row r="754" ht="15.75" customHeight="1">
+    <row r="754" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B754" s="2"/>
     </row>
-    <row r="755" ht="15.75" customHeight="1">
+    <row r="755" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B755" s="2"/>
     </row>
-    <row r="756" ht="15.75" customHeight="1">
+    <row r="756" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B756" s="2"/>
     </row>
-    <row r="757" ht="15.75" customHeight="1">
+    <row r="757" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B757" s="2"/>
     </row>
-    <row r="758" ht="15.75" customHeight="1">
+    <row r="758" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B758" s="2"/>
     </row>
-    <row r="759" ht="15.75" customHeight="1">
+    <row r="759" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B759" s="2"/>
     </row>
-    <row r="760" ht="15.75" customHeight="1">
+    <row r="760" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B760" s="2"/>
     </row>
-    <row r="761" ht="15.75" customHeight="1">
+    <row r="761" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B761" s="2"/>
     </row>
-    <row r="762" ht="15.75" customHeight="1">
+    <row r="762" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B762" s="2"/>
     </row>
-    <row r="763" ht="15.75" customHeight="1">
+    <row r="763" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B763" s="2"/>
     </row>
-    <row r="764" ht="15.75" customHeight="1">
+    <row r="764" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B764" s="2"/>
     </row>
-    <row r="765" ht="15.75" customHeight="1">
+    <row r="765" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B765" s="2"/>
     </row>
-    <row r="766" ht="15.75" customHeight="1">
+    <row r="766" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B766" s="2"/>
     </row>
-    <row r="767" ht="15.75" customHeight="1">
+    <row r="767" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B767" s="2"/>
     </row>
-    <row r="768" ht="15.75" customHeight="1">
+    <row r="768" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B768" s="2"/>
     </row>
-    <row r="769" ht="15.75" customHeight="1">
+    <row r="769" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B769" s="2"/>
     </row>
-    <row r="770" ht="15.75" customHeight="1">
+    <row r="770" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B770" s="2"/>
     </row>
-    <row r="771" ht="15.75" customHeight="1">
+    <row r="771" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B771" s="2"/>
     </row>
-    <row r="772" ht="15.75" customHeight="1">
+    <row r="772" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B772" s="2"/>
     </row>
-    <row r="773" ht="15.75" customHeight="1">
+    <row r="773" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B773" s="2"/>
     </row>
-    <row r="774" ht="15.75" customHeight="1">
+    <row r="774" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B774" s="2"/>
     </row>
-    <row r="775" ht="15.75" customHeight="1">
+    <row r="775" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B775" s="2"/>
     </row>
-    <row r="776" ht="15.75" customHeight="1">
+    <row r="776" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B776" s="2"/>
     </row>
-    <row r="777" ht="15.75" customHeight="1">
+    <row r="777" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B777" s="2"/>
     </row>
-    <row r="778" ht="15.75" customHeight="1">
+    <row r="778" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B778" s="2"/>
     </row>
-    <row r="779" ht="15.75" customHeight="1">
+    <row r="779" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B779" s="2"/>
     </row>
-    <row r="780" ht="15.75" customHeight="1">
+    <row r="780" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B780" s="2"/>
     </row>
-    <row r="781" ht="15.75" customHeight="1">
+    <row r="781" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B781" s="2"/>
     </row>
-    <row r="782" ht="15.75" customHeight="1">
+    <row r="782" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B782" s="2"/>
     </row>
-    <row r="783" ht="15.75" customHeight="1">
+    <row r="783" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B783" s="2"/>
     </row>
-    <row r="784" ht="15.75" customHeight="1">
+    <row r="784" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B784" s="2"/>
     </row>
-    <row r="785" ht="15.75" customHeight="1">
+    <row r="785" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B785" s="2"/>
     </row>
-    <row r="786" ht="15.75" customHeight="1">
+    <row r="786" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B786" s="2"/>
     </row>
-    <row r="787" ht="15.75" customHeight="1">
+    <row r="787" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B787" s="2"/>
     </row>
-    <row r="788" ht="15.75" customHeight="1">
+    <row r="788" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B788" s="2"/>
     </row>
-    <row r="789" ht="15.75" customHeight="1">
+    <row r="789" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B789" s="2"/>
     </row>
-    <row r="790" ht="15.75" customHeight="1">
+    <row r="790" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B790" s="2"/>
     </row>
-    <row r="791" ht="15.75" customHeight="1">
+    <row r="791" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B791" s="2"/>
     </row>
-    <row r="792" ht="15.75" customHeight="1">
+    <row r="792" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B792" s="2"/>
     </row>
-    <row r="793" ht="15.75" customHeight="1">
+    <row r="793" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B793" s="2"/>
     </row>
-    <row r="794" ht="15.75" customHeight="1">
+    <row r="794" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B794" s="2"/>
     </row>
-    <row r="795" ht="15.75" customHeight="1">
+    <row r="795" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B795" s="2"/>
     </row>
-    <row r="796" ht="15.75" customHeight="1">
+    <row r="796" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B796" s="2"/>
     </row>
-    <row r="797" ht="15.75" customHeight="1">
+    <row r="797" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B797" s="2"/>
     </row>
-    <row r="798" ht="15.75" customHeight="1">
+    <row r="798" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B798" s="2"/>
     </row>
-    <row r="799" ht="15.75" customHeight="1">
+    <row r="799" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B799" s="2"/>
     </row>
-    <row r="800" ht="15.75" customHeight="1">
+    <row r="800" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B800" s="2"/>
     </row>
-    <row r="801" ht="15.75" customHeight="1">
+    <row r="801" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B801" s="2"/>
     </row>
-    <row r="802" ht="15.75" customHeight="1">
+    <row r="802" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B802" s="2"/>
     </row>
-    <row r="803" ht="15.75" customHeight="1">
+    <row r="803" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B803" s="2"/>
     </row>
-    <row r="804" ht="15.75" customHeight="1">
+    <row r="804" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B804" s="2"/>
     </row>
-    <row r="805" ht="15.75" customHeight="1">
+    <row r="805" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B805" s="2"/>
     </row>
-    <row r="806" ht="15.75" customHeight="1">
+    <row r="806" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B806" s="2"/>
     </row>
-    <row r="807" ht="15.75" customHeight="1">
+    <row r="807" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B807" s="2"/>
     </row>
-    <row r="808" ht="15.75" customHeight="1">
+    <row r="808" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B808" s="2"/>
     </row>
-    <row r="809" ht="15.75" customHeight="1">
+    <row r="809" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B809" s="2"/>
     </row>
-    <row r="810" ht="15.75" customHeight="1">
+    <row r="810" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B810" s="2"/>
     </row>
-    <row r="811" ht="15.75" customHeight="1">
+    <row r="811" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B811" s="2"/>
     </row>
-    <row r="812" ht="15.75" customHeight="1">
+    <row r="812" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B812" s="2"/>
     </row>
-    <row r="813" ht="15.75" customHeight="1">
+    <row r="813" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B813" s="2"/>
     </row>
-    <row r="814" ht="15.75" customHeight="1">
+    <row r="814" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B814" s="2"/>
     </row>
-    <row r="815" ht="15.75" customHeight="1">
+    <row r="815" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B815" s="2"/>
     </row>
-    <row r="816" ht="15.75" customHeight="1">
+    <row r="816" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B816" s="2"/>
     </row>
-    <row r="817" ht="15.75" customHeight="1">
+    <row r="817" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B817" s="2"/>
     </row>
-    <row r="818" ht="15.75" customHeight="1">
+    <row r="818" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B818" s="2"/>
     </row>
-    <row r="819" ht="15.75" customHeight="1">
+    <row r="819" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B819" s="2"/>
     </row>
-    <row r="820" ht="15.75" customHeight="1">
+    <row r="820" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B820" s="2"/>
     </row>
-    <row r="821" ht="15.75" customHeight="1">
+    <row r="821" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B821" s="2"/>
     </row>
-    <row r="822" ht="15.75" customHeight="1">
+    <row r="822" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B822" s="2"/>
     </row>
-    <row r="823" ht="15.75" customHeight="1">
+    <row r="823" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B823" s="2"/>
     </row>
-    <row r="824" ht="15.75" customHeight="1">
+    <row r="824" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B824" s="2"/>
     </row>
-    <row r="825" ht="15.75" customHeight="1">
+    <row r="825" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B825" s="2"/>
     </row>
-    <row r="826" ht="15.75" customHeight="1">
+    <row r="826" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B826" s="2"/>
     </row>
-    <row r="827" ht="15.75" customHeight="1">
+    <row r="827" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B827" s="2"/>
     </row>
-    <row r="828" ht="15.75" customHeight="1">
+    <row r="828" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B828" s="2"/>
     </row>
-    <row r="829" ht="15.75" customHeight="1">
+    <row r="829" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B829" s="2"/>
     </row>
-    <row r="830" ht="15.75" customHeight="1">
+    <row r="830" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B830" s="2"/>
     </row>
-    <row r="831" ht="15.75" customHeight="1">
+    <row r="831" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B831" s="2"/>
     </row>
-    <row r="832" ht="15.75" customHeight="1">
+    <row r="832" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B832" s="2"/>
     </row>
-    <row r="833" ht="15.75" customHeight="1">
+    <row r="833" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B833" s="2"/>
     </row>
-    <row r="834" ht="15.75" customHeight="1">
+    <row r="834" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B834" s="2"/>
     </row>
-    <row r="835" ht="15.75" customHeight="1">
+    <row r="835" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B835" s="2"/>
     </row>
-    <row r="836" ht="15.75" customHeight="1">
+    <row r="836" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B836" s="2"/>
     </row>
-    <row r="837" ht="15.75" customHeight="1">
+    <row r="837" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B837" s="2"/>
     </row>
-    <row r="838" ht="15.75" customHeight="1">
+    <row r="838" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B838" s="2"/>
     </row>
-    <row r="839" ht="15.75" customHeight="1">
+    <row r="839" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B839" s="2"/>
     </row>
-    <row r="840" ht="15.75" customHeight="1">
+    <row r="840" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B840" s="2"/>
     </row>
-    <row r="841" ht="15.75" customHeight="1">
+    <row r="841" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B841" s="2"/>
     </row>
-    <row r="842" ht="15.75" customHeight="1">
+    <row r="842" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B842" s="2"/>
     </row>
-    <row r="843" ht="15.75" customHeight="1">
+    <row r="843" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B843" s="2"/>
     </row>
-    <row r="844" ht="15.75" customHeight="1">
+    <row r="844" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B844" s="2"/>
     </row>
-    <row r="845" ht="15.75" customHeight="1">
+    <row r="845" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B845" s="2"/>
     </row>
-    <row r="846" ht="15.75" customHeight="1">
+    <row r="846" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B846" s="2"/>
     </row>
-    <row r="847" ht="15.75" customHeight="1">
+    <row r="847" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B847" s="2"/>
     </row>
-    <row r="848" ht="15.75" customHeight="1">
+    <row r="848" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B848" s="2"/>
     </row>
-    <row r="849" ht="15.75" customHeight="1">
+    <row r="849" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B849" s="2"/>
     </row>
-    <row r="850" ht="15.75" customHeight="1">
+    <row r="850" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B850" s="2"/>
     </row>
-    <row r="851" ht="15.75" customHeight="1">
+    <row r="851" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B851" s="2"/>
     </row>
-    <row r="852" ht="15.75" customHeight="1">
+    <row r="852" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B852" s="2"/>
     </row>
-    <row r="853" ht="15.75" customHeight="1">
+    <row r="853" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B853" s="2"/>
     </row>
-    <row r="854" ht="15.75" customHeight="1">
+    <row r="854" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B854" s="2"/>
     </row>
-    <row r="855" ht="15.75" customHeight="1">
+    <row r="855" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B855" s="2"/>
     </row>
-    <row r="856" ht="15.75" customHeight="1">
+    <row r="856" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B856" s="2"/>
     </row>
-    <row r="857" ht="15.75" customHeight="1">
+    <row r="857" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B857" s="2"/>
     </row>
-    <row r="858" ht="15.75" customHeight="1">
+    <row r="858" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B858" s="2"/>
     </row>
-    <row r="859" ht="15.75" customHeight="1">
+    <row r="859" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B859" s="2"/>
     </row>
-    <row r="860" ht="15.75" customHeight="1">
+    <row r="860" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B860" s="2"/>
     </row>
-    <row r="861" ht="15.75" customHeight="1">
+    <row r="861" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B861" s="2"/>
     </row>
-    <row r="862" ht="15.75" customHeight="1">
+    <row r="862" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B862" s="2"/>
     </row>
-    <row r="863" ht="15.75" customHeight="1">
+    <row r="863" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B863" s="2"/>
     </row>
-    <row r="864" ht="15.75" customHeight="1">
+    <row r="864" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B864" s="2"/>
     </row>
-    <row r="865" ht="15.75" customHeight="1">
+    <row r="865" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B865" s="2"/>
     </row>
-    <row r="866" ht="15.75" customHeight="1">
+    <row r="866" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B866" s="2"/>
     </row>
-    <row r="867" ht="15.75" customHeight="1">
+    <row r="867" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B867" s="2"/>
     </row>
-    <row r="868" ht="15.75" customHeight="1">
+    <row r="868" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B868" s="2"/>
     </row>
-    <row r="869" ht="15.75" customHeight="1">
+    <row r="869" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B869" s="2"/>
     </row>
-    <row r="870" ht="15.75" customHeight="1">
+    <row r="870" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B870" s="2"/>
     </row>
-    <row r="871" ht="15.75" customHeight="1">
+    <row r="871" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B871" s="2"/>
     </row>
-    <row r="872" ht="15.75" customHeight="1">
+    <row r="872" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B872" s="2"/>
     </row>
-    <row r="873" ht="15.75" customHeight="1">
+    <row r="873" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B873" s="2"/>
     </row>
-    <row r="874" ht="15.75" customHeight="1">
+    <row r="874" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B874" s="2"/>
     </row>
-    <row r="875" ht="15.75" customHeight="1">
+    <row r="875" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B875" s="2"/>
     </row>
-    <row r="876" ht="15.75" customHeight="1">
+    <row r="876" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B876" s="2"/>
     </row>
-    <row r="877" ht="15.75" customHeight="1">
+    <row r="877" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B877" s="2"/>
     </row>
-    <row r="878" ht="15.75" customHeight="1">
+    <row r="878" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B878" s="2"/>
     </row>
-    <row r="879" ht="15.75" customHeight="1">
+    <row r="879" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B879" s="2"/>
     </row>
-    <row r="880" ht="15.75" customHeight="1">
+    <row r="880" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B880" s="2"/>
     </row>
-    <row r="881" ht="15.75" customHeight="1">
+    <row r="881" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B881" s="2"/>
     </row>
-    <row r="882" ht="15.75" customHeight="1">
+    <row r="882" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B882" s="2"/>
     </row>
-    <row r="883" ht="15.75" customHeight="1">
+    <row r="883" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B883" s="2"/>
     </row>
-    <row r="884" ht="15.75" customHeight="1">
+    <row r="884" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B884" s="2"/>
     </row>
-    <row r="885" ht="15.75" customHeight="1">
+    <row r="885" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B885" s="2"/>
     </row>
-    <row r="886" ht="15.75" customHeight="1">
+    <row r="886" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B886" s="2"/>
     </row>
-    <row r="887" ht="15.75" customHeight="1">
+    <row r="887" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B887" s="2"/>
     </row>
-    <row r="888" ht="15.75" customHeight="1">
+    <row r="888" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B888" s="2"/>
     </row>
-    <row r="889" ht="15.75" customHeight="1">
+    <row r="889" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B889" s="2"/>
     </row>
-    <row r="890" ht="15.75" customHeight="1">
+    <row r="890" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B890" s="2"/>
     </row>
-    <row r="891" ht="15.75" customHeight="1">
+    <row r="891" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B891" s="2"/>
     </row>
-    <row r="892" ht="15.75" customHeight="1">
+    <row r="892" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B892" s="2"/>
     </row>
-    <row r="893" ht="15.75" customHeight="1">
+    <row r="893" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B893" s="2"/>
     </row>
-    <row r="894" ht="15.75" customHeight="1">
+    <row r="894" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B894" s="2"/>
     </row>
-    <row r="895" ht="15.75" customHeight="1">
+    <row r="895" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B895" s="2"/>
     </row>
-    <row r="896" ht="15.75" customHeight="1">
+    <row r="896" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B896" s="2"/>
     </row>
-    <row r="897" ht="15.75" customHeight="1">
+    <row r="897" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B897" s="2"/>
     </row>
-    <row r="898" ht="15.75" customHeight="1">
+    <row r="898" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B898" s="2"/>
     </row>
-    <row r="899" ht="15.75" customHeight="1">
+    <row r="899" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B899" s="2"/>
     </row>
-    <row r="900" ht="15.75" customHeight="1">
+    <row r="900" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B900" s="2"/>
     </row>
-    <row r="901" ht="15.75" customHeight="1">
+    <row r="901" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B901" s="2"/>
     </row>
-    <row r="902" ht="15.75" customHeight="1">
+    <row r="902" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B902" s="2"/>
     </row>
-    <row r="903" ht="15.75" customHeight="1">
+    <row r="903" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B903" s="2"/>
     </row>
-    <row r="904" ht="15.75" customHeight="1">
+    <row r="904" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B904" s="2"/>
     </row>
-    <row r="905" ht="15.75" customHeight="1">
+    <row r="905" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B905" s="2"/>
     </row>
-    <row r="906" ht="15.75" customHeight="1">
+    <row r="906" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B906" s="2"/>
     </row>
-    <row r="907" ht="15.75" customHeight="1">
+    <row r="907" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B907" s="2"/>
     </row>
-    <row r="908" ht="15.75" customHeight="1">
+    <row r="908" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B908" s="2"/>
     </row>
-    <row r="909" ht="15.75" customHeight="1">
+    <row r="909" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B909" s="2"/>
     </row>
-    <row r="910" ht="15.75" customHeight="1">
+    <row r="910" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B910" s="2"/>
     </row>
-    <row r="911" ht="15.75" customHeight="1">
+    <row r="911" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B911" s="2"/>
     </row>
-    <row r="912" ht="15.75" customHeight="1">
+    <row r="912" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B912" s="2"/>
     </row>
-    <row r="913" ht="15.75" customHeight="1">
+    <row r="913" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B913" s="2"/>
     </row>
-    <row r="914" ht="15.75" customHeight="1">
+    <row r="914" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B914" s="2"/>
     </row>
-    <row r="915" ht="15.75" customHeight="1">
+    <row r="915" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B915" s="2"/>
     </row>
-    <row r="916" ht="15.75" customHeight="1">
+    <row r="916" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B916" s="2"/>
     </row>
-    <row r="917" ht="15.75" customHeight="1">
+    <row r="917" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B917" s="2"/>
     </row>
-    <row r="918" ht="15.75" customHeight="1">
+    <row r="918" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B918" s="2"/>
     </row>
-    <row r="919" ht="15.75" customHeight="1">
+    <row r="919" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B919" s="2"/>
     </row>
-    <row r="920" ht="15.75" customHeight="1">
+    <row r="920" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B920" s="2"/>
     </row>
-    <row r="921" ht="15.75" customHeight="1">
+    <row r="921" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B921" s="2"/>
     </row>
-    <row r="922" ht="15.75" customHeight="1">
+    <row r="922" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B922" s="2"/>
     </row>
-    <row r="923" ht="15.75" customHeight="1">
+    <row r="923" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B923" s="2"/>
     </row>
-    <row r="924" ht="15.75" customHeight="1">
+    <row r="924" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B924" s="2"/>
     </row>
-    <row r="925" ht="15.75" customHeight="1">
+    <row r="925" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B925" s="2"/>
     </row>
-    <row r="926" ht="15.75" customHeight="1">
+    <row r="926" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B926" s="2"/>
     </row>
-    <row r="927" ht="15.75" customHeight="1">
+    <row r="927" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B927" s="2"/>
     </row>
-    <row r="928" ht="15.75" customHeight="1">
+    <row r="928" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B928" s="2"/>
     </row>
-    <row r="929" ht="15.75" customHeight="1">
+    <row r="929" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B929" s="2"/>
     </row>
-    <row r="930" ht="15.75" customHeight="1">
+    <row r="930" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B930" s="2"/>
     </row>
-    <row r="931" ht="15.75" customHeight="1">
+    <row r="931" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B931" s="2"/>
     </row>
-    <row r="932" ht="15.75" customHeight="1">
+    <row r="932" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B932" s="2"/>
     </row>
-    <row r="933" ht="15.75" customHeight="1">
+    <row r="933" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B933" s="2"/>
     </row>
-    <row r="934" ht="15.75" customHeight="1">
+    <row r="934" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B934" s="2"/>
     </row>
-    <row r="935" ht="15.75" customHeight="1">
+    <row r="935" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B935" s="2"/>
     </row>
-    <row r="936" ht="15.75" customHeight="1">
+    <row r="936" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B936" s="2"/>
     </row>
-    <row r="937" ht="15.75" customHeight="1">
+    <row r="937" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B937" s="2"/>
     </row>
-    <row r="938" ht="15.75" customHeight="1">
+    <row r="938" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B938" s="2"/>
     </row>
-    <row r="939" ht="15.75" customHeight="1">
+    <row r="939" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B939" s="2"/>
     </row>
-    <row r="940" ht="15.75" customHeight="1">
+    <row r="940" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B940" s="2"/>
     </row>
-    <row r="941" ht="15.75" customHeight="1">
+    <row r="941" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B941" s="2"/>
     </row>
-    <row r="942" ht="15.75" customHeight="1">
+    <row r="942" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B942" s="2"/>
     </row>
-    <row r="943" ht="15.75" customHeight="1">
+    <row r="943" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B943" s="2"/>
     </row>
-    <row r="944" ht="15.75" customHeight="1">
+    <row r="944" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B944" s="2"/>
     </row>
-    <row r="945" ht="15.75" customHeight="1">
+    <row r="945" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B945" s="2"/>
     </row>
-    <row r="946" ht="15.75" customHeight="1">
+    <row r="946" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B946" s="2"/>
     </row>
-    <row r="947" ht="15.75" customHeight="1">
+    <row r="947" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B947" s="2"/>
     </row>
-    <row r="948" ht="15.75" customHeight="1">
+    <row r="948" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B948" s="2"/>
     </row>
-    <row r="949" ht="15.75" customHeight="1">
+    <row r="949" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B949" s="2"/>
     </row>
-    <row r="950" ht="15.75" customHeight="1">
+    <row r="950" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B950" s="2"/>
     </row>
-    <row r="951" ht="15.75" customHeight="1">
+    <row r="951" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B951" s="2"/>
     </row>
-    <row r="952" ht="15.75" customHeight="1">
+    <row r="952" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B952" s="2"/>
     </row>
-    <row r="953" ht="15.75" customHeight="1">
+    <row r="953" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B953" s="2"/>
     </row>
-    <row r="954" ht="15.75" customHeight="1">
+    <row r="954" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B954" s="2"/>
     </row>
-    <row r="955" ht="15.75" customHeight="1">
+    <row r="955" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B955" s="2"/>
     </row>
-    <row r="956" ht="15.75" customHeight="1">
+    <row r="956" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B956" s="2"/>
     </row>
-    <row r="957" ht="15.75" customHeight="1">
+    <row r="957" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B957" s="2"/>
     </row>
-    <row r="958" ht="15.75" customHeight="1">
+    <row r="958" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B958" s="2"/>
     </row>
-    <row r="959" ht="15.75" customHeight="1">
+    <row r="959" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B959" s="2"/>
     </row>
-    <row r="960" ht="15.75" customHeight="1">
+    <row r="960" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B960" s="2"/>
     </row>
-    <row r="961" ht="15.75" customHeight="1">
+    <row r="961" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B961" s="2"/>
     </row>
-    <row r="962" ht="15.75" customHeight="1">
+    <row r="962" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B962" s="2"/>
     </row>
-    <row r="963" ht="15.75" customHeight="1">
+    <row r="963" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B963" s="2"/>
     </row>
-    <row r="964" ht="15.75" customHeight="1">
+    <row r="964" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B964" s="2"/>
     </row>
-    <row r="965" ht="15.75" customHeight="1">
+    <row r="965" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B965" s="2"/>
     </row>
-    <row r="966" ht="15.75" customHeight="1">
+    <row r="966" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B966" s="2"/>
     </row>
-    <row r="967" ht="15.75" customHeight="1">
+    <row r="967" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B967" s="2"/>
     </row>
-    <row r="968" ht="15.75" customHeight="1">
+    <row r="968" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B968" s="2"/>
     </row>
-    <row r="969" ht="15.75" customHeight="1">
+    <row r="969" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B969" s="2"/>
     </row>
-    <row r="970" ht="15.75" customHeight="1">
+    <row r="970" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B970" s="2"/>
     </row>
-    <row r="971" ht="15.75" customHeight="1">
+    <row r="971" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B971" s="2"/>
     </row>
-    <row r="972" ht="15.75" customHeight="1">
+    <row r="972" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B972" s="2"/>
     </row>
-    <row r="973" ht="15.75" customHeight="1">
+    <row r="973" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B973" s="2"/>
     </row>
-    <row r="974" ht="15.75" customHeight="1">
+    <row r="974" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B974" s="2"/>
     </row>
-    <row r="975" ht="15.75" customHeight="1">
+    <row r="975" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B975" s="2"/>
     </row>
-    <row r="976" ht="15.75" customHeight="1">
+    <row r="976" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B976" s="2"/>
     </row>
-    <row r="977" ht="15.75" customHeight="1">
+    <row r="977" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B977" s="2"/>
     </row>
-    <row r="978" ht="15.75" customHeight="1">
+    <row r="978" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B978" s="2"/>
     </row>
-    <row r="979" ht="15.75" customHeight="1">
+    <row r="979" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B979" s="2"/>
     </row>
-    <row r="980" ht="15.75" customHeight="1">
+    <row r="980" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B980" s="2"/>
     </row>
-    <row r="981" ht="15.75" customHeight="1">
+    <row r="981" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B981" s="2"/>
     </row>
-    <row r="982" ht="15.75" customHeight="1">
+    <row r="982" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B982" s="2"/>
     </row>
-    <row r="983" ht="15.75" customHeight="1">
+    <row r="983" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B983" s="2"/>
     </row>
-    <row r="984" ht="15.75" customHeight="1">
+    <row r="984" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B984" s="2"/>
     </row>
-    <row r="985" ht="15.75" customHeight="1">
+    <row r="985" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B985" s="2"/>
     </row>
-    <row r="986" ht="15.75" customHeight="1">
+    <row r="986" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B986" s="2"/>
     </row>
-    <row r="987" ht="15.75" customHeight="1">
+    <row r="987" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B987" s="2"/>
     </row>
-    <row r="988" ht="15.75" customHeight="1">
+    <row r="988" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B988" s="2"/>
     </row>
-    <row r="989" ht="15.75" customHeight="1">
+    <row r="989" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B989" s="2"/>
     </row>
-    <row r="990" ht="15.75" customHeight="1">
+    <row r="990" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B990" s="2"/>
     </row>
-    <row r="991" ht="15.75" customHeight="1">
+    <row r="991" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B991" s="2"/>
     </row>
-    <row r="992" ht="15.75" customHeight="1">
+    <row r="992" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B992" s="2"/>
     </row>
-    <row r="993" ht="15.75" customHeight="1">
+    <row r="993" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B993" s="2"/>
     </row>
-    <row r="994" ht="15.75" customHeight="1">
+    <row r="994" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B994" s="2"/>
     </row>
-    <row r="995" ht="15.75" customHeight="1">
+    <row r="995" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B995" s="2"/>
     </row>
-    <row r="996" ht="15.75" customHeight="1">
+    <row r="996" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B996" s="2"/>
     </row>
-    <row r="997" ht="15.75" customHeight="1">
+    <row r="997" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B997" s="2"/>
     </row>
-    <row r="998" ht="15.75" customHeight="1">
+    <row r="998" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B998" s="2"/>
     </row>
-    <row r="999" ht="15.75" customHeight="1">
+    <row r="999" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B999" s="2"/>
     </row>
-    <row r="1000" ht="15.75" customHeight="1">
+    <row r="1000" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1000" s="2"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>